--- a/data/Paired- hpCHC ATTA_curated.xlsx
+++ b/data/Paired- hpCHC ATTA_curated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgierlinski/Work/Biology/Projects/Birch lab quick look/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HW42774\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{536E1043-D561-014B-AC0F-B0067229B672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB605C-44D7-43E0-B423-2DFDAE941ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49440" yWindow="-6040" windowWidth="29040" windowHeight="15840" xr2:uid="{B5ED1C58-EDA3-40D6-9201-60240E274485}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5ED1C58-EDA3-40D6-9201-60240E274485}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,17 +399,17 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -420,129 +420,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="C12">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -575,7 +575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -806,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
